--- a/Calipso V2.0 Rev1.0 BOM.xlsx
+++ b/Calipso V2.0 Rev1.0 BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FxSlava\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FxSlava\Documents\Laser-LED-STM-Board-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1859,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Calipso V2.0 Rev1.0 BOM.xlsx
+++ b/Calipso V2.0 Rev1.0 BOM.xlsx
@@ -1859,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4258,7 +4258,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
   <ignoredErrors>
-    <ignoredError sqref="C16 A44:A46 A40 A48 A54 C40:C41 C42:C54 C56:C60 C61:C62" numberStoredAsText="1"/>
+    <ignoredError sqref="C16 A44:A45 A40 A48 A54 C40:C41 C42:C54 C56:C60 C61:C62" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
